--- a/Dichotomy_and_other_methods.xlsx
+++ b/Dichotomy_and_other_methods.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>x</t>
   </si>
@@ -113,6 +113,27 @@
   <si>
     <t>abs(a-b)</t>
   </si>
+  <si>
+    <t xml:space="preserve">cosx + x - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = -cosx + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод итераций</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Так как этот отрезок получается слишком коротким, его не видно на графике</t>
+  </si>
 </sst>
 </file>
 
@@ -203,9 +224,6 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,11 +237,16 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +310,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
-        <c:manualLayout/>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.090079999999999993"/>
+          <c:y val="0.17327999999999999"/>
+          <c:w val="0.85748000000000002"/>
+          <c:h val="0.77246999999999999"/>
+        </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smooth"/>
@@ -327,6 +358,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -515,8 +547,792 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="2185986" y="214311"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="1427427" y="209548"/>
+      <a:ext cx="4913841" cy="2273565"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Лист1'!$A$67:$A$83</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лист1'!$B$67:$B$83</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="664969040"/>
+        <c:axId val="664969041"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664969040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969041"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664969041"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="2149739" y="11849364"/>
+      <a:ext cx="5005916" cy="3004343"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.090079999999999993"/>
+          <c:y val="0.17327999999999999"/>
+          <c:w val="0.85748000000000002"/>
+          <c:h val="0.77246999999999999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Лист1'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1,5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3,5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4,5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лист1'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6224174381096272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45969769413186023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4292627983322972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.41614683654714235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3011436155469336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.010007503399554807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5635433127092035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3463563791363882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2892042005692206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2836621854632266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Итерации</c:v>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лист1'!$A$67:$A$83</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лист1'!$B$67:$B$83</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="664969091"/>
+        <c:axId val="664969092"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664969091"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969092"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664969092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969091"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="7215187" y="13204031"/>
+      <a:ext cx="4913840" cy="2273565"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -598,7 +1414,1177 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1147,16 +3133,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357186</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>30954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1166,12 +3152,76 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2185986" y="214311"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="1427427" y="209548"/>
+        <a:ext cx="4913841" cy="2273565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125677</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>62177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>30426</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664969037" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2149739" y="11849364"/>
+        <a:ext cx="5005916" cy="3004343"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664969093" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7215187" y="13204031"/>
+        <a:ext cx="4913840" cy="2273565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1673,11 +3723,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.57421875"/>
+    <col customWidth="1" min="2" max="2" width="10.7109375"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
@@ -1686,10 +3740,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1">
@@ -1699,14 +3753,14 @@
         <f t="shared" ref="B2:B9" si="0">COS(A2)+A2-2</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1">
@@ -1716,15 +3770,15 @@
         <f t="shared" si="0"/>
         <v>-0.62241743810962724</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="2">
         <f>-SIN(2.5)+1</f>
         <v>0.40152785589604356</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f>-SIN(3)+1</f>
         <v>0.85887999194013276</v>
       </c>
@@ -1737,15 +3791,15 @@
         <f t="shared" si="0"/>
         <v>-0.45969769413186023</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="2">
         <f>-COS(2.5)</f>
         <v>0.8011436155469337</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f>-COS(3)</f>
         <v>0.98999249660044542</v>
       </c>
@@ -1823,7 +3877,7 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1"/>
@@ -1837,14 +3891,14 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1"/>
@@ -1854,12 +3908,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
@@ -1909,15 +3963,15 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="1">
-        <f>COS(A20)+A20-2</f>
+        <f t="shared" ref="E20:E26" si="4">COS(A20)+A20-2</f>
         <v>-0.30114361554693359</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20:F26" si="4">COS(C20)+C20-2</f>
+        <f t="shared" ref="F20:F26" si="5">COS(C20)+C20-2</f>
         <v>-0.17430237863246356</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G26" si="5">E20*F20</f>
+        <f t="shared" ref="G20:G26" si="6">E20*F20</f>
         <v>5.2490048499810656e-002</v>
       </c>
       <c r="H20" s="1">
@@ -1932,11 +3986,11 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:A26" si="6">IF(G20&lt;0,A20,C20)</f>
+        <f t="shared" ref="A21:A26" si="7">IF(G20&lt;0,A20,C20)</f>
         <v>2.75</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:B26" si="7">IF(G20&lt;0,C20,B20)</f>
+        <f t="shared" ref="B21:B26" si="8">IF(G20&lt;0,C20,B20)</f>
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -1948,15 +4002,15 @@
         <v>0.25</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ref="E21:E26" si="8">COS(A21)+A21-2</f>
+        <f t="shared" si="4"/>
         <v>-0.17430237863246356</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.9674146321316428e-002</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5630417005641037e-002</v>
       </c>
       <c r="H21" s="1">
@@ -1972,11 +4026,11 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.875</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C22" s="1">
@@ -1988,15 +4042,15 @@
         <v>0.125</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-8.9674146321316428e-002</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.1745287406520504e-002</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7434730111177276e-003</v>
       </c>
       <c r="H22" s="1">
@@ -2012,11 +4066,11 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9375</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C23" s="1">
@@ -2028,15 +4082,15 @@
         <v>6.25e-002</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-4.1745287406520504e-002</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6349858650762439e-002</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8252954843206351e-004</v>
       </c>
       <c r="H23" s="1">
@@ -2052,11 +4106,11 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.96875</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C24" s="1">
@@ -2068,33 +4122,33 @@
         <v>3.125e-002</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-1.6349858650762439e-002</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.2917399603200614e-003</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3819483066299365e-005</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.984375</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C25" s="1">
@@ -2106,33 +4160,33 @@
         <v>1.5625e-002</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-3.2917399603200614e-003</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3277042670372126e-003</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0953937111933974e-005</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.984375</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9921875</v>
       </c>
       <c r="C26" s="1">
@@ -2144,48 +4198,48 @@
         <v>7.8125e-003</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-3.2917399603200614e-003</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0442255049980531e-005</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.4373188223874878e-008</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" ht="14.25"/>
     <row r="29" ht="14.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="1" t="s">
@@ -2203,14 +4257,14 @@
       <c r="E30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="1">
@@ -2220,508 +4274,838 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <f>COS(A31)+A31-2</f>
+        <f t="shared" ref="C31:C38" si="10">COS(A31)+A31-2</f>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D31" s="1">
-        <f>COS(B31)+B31-2</f>
+        <f t="shared" ref="D31:D38" si="11">COS(B31)+B31-2</f>
         <v>1.0007503399554807e-002</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="1">
-        <f>A31</f>
+        <f t="shared" ref="A32:A38" si="12">A31</f>
         <v>2.5</v>
       </c>
       <c r="B32" s="1">
-        <f>B31-(A31-B31)/(C31-D31)*D31</f>
+        <f t="shared" ref="B32:B38" si="13">B31-(A31-B31)/(C31-D31)*D31</f>
         <v>2.9839185804096755</v>
       </c>
       <c r="C32" s="1">
-        <f>COS(A32)+A32-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D32" s="1">
-        <f>COS(B32)+B32-2</f>
+        <f t="shared" si="11"/>
         <v>-3.6765947046966119e-003</v>
       </c>
       <c r="E32" s="1">
-        <f>ABS(B31-B32)</f>
+        <f t="shared" ref="E32:E38" si="14">ABS(B31-B32)</f>
         <v>1.6081419590324497e-002</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="1">
-        <f>A32</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="B33" s="1">
-        <f>B32-(A32-B32)/(C32-D32)*D32</f>
+        <f t="shared" si="13"/>
         <v>2.9898996551694959</v>
       </c>
       <c r="C33" s="1">
-        <f>COS(A33)+A33-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D33" s="1">
-        <f>COS(B33)+B33-2</f>
+        <f t="shared" si="11"/>
         <v>1.382992663878202e-003</v>
       </c>
       <c r="E33" s="1">
-        <f>ABS(B32-B33)</f>
+        <f t="shared" si="14"/>
         <v>5.9810747598203484e-003</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="1">
-        <f>A33</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="B34" s="1">
-        <f>B33-(A33-B33)/(C33-D33)*D33</f>
+        <f t="shared" si="13"/>
         <v>2.9876600914063518</v>
       </c>
       <c r="C34" s="1">
-        <f>COS(A34)+A34-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D34" s="1">
-        <f>COS(B34)+B34-2</f>
+        <f t="shared" si="11"/>
         <v>-5.1566761098009728e-004</v>
       </c>
       <c r="E34" s="1">
-        <f>ABS(B33-B34)</f>
+        <f t="shared" si="14"/>
         <v>2.2395637631440479e-003</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="1">
-        <f>A34</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="B35" s="1">
-        <f>B34-(A34-B34)/(C34-D34)*D34</f>
+        <f t="shared" si="13"/>
         <v>2.9884965755590476</v>
       </c>
       <c r="C35" s="1">
-        <f>COS(A35)+A35-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D35" s="1">
-        <f>COS(B35)+B35-2</f>
+        <f t="shared" si="11"/>
         <v>1.9290803000648893e-004</v>
       </c>
       <c r="E35" s="1">
-        <f>ABS(B34-B35)</f>
+        <f t="shared" si="14"/>
         <v>8.3648415269577114e-004</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="1">
-        <f>A35</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="B36" s="1">
-        <f>B35-(A35-B35)/(C35-D35)*D35</f>
+        <f t="shared" si="13"/>
         <v>2.9881838523918143</v>
       </c>
       <c r="C36" s="1">
-        <f>COS(A36)+A36-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D36" s="1">
-        <f>COS(B36)+B36-2</f>
+        <f t="shared" si="11"/>
         <v>-7.2076928147479791e-005</v>
       </c>
       <c r="E36" s="1">
-        <f>ABS(B35-B36)</f>
+        <f t="shared" si="14"/>
         <v>3.1272316723329752e-004</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="1">
-        <f>A36</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="B37" s="1">
-        <f>B36-(A36-B36)/(C36-D36)*D36</f>
+        <f t="shared" si="13"/>
         <v>2.9883007242575941</v>
       </c>
       <c r="C37" s="1">
-        <f>COS(A37)+A37-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D37" s="1">
-        <f>COS(B37)+B37-2</f>
+        <f t="shared" si="11"/>
         <v>2.6942756424119807e-005</v>
       </c>
       <c r="E37" s="1">
-        <f>ABS(B36-B37)</f>
+        <f t="shared" si="14"/>
         <v>1.1687186577979958e-004</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="1">
-        <f>A37</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="B38" s="1">
-        <f>B37-(A37-B37)/(C37-D37)*D37</f>
+        <f t="shared" si="13"/>
         <v>2.9882570408127398</v>
       </c>
       <c r="C38" s="1">
-        <f>COS(A38)+A38-2</f>
+        <f t="shared" si="10"/>
         <v>-0.30114361554693359</v>
       </c>
       <c r="D38" s="1">
-        <f>COS(B38)+B38-2</f>
+        <f t="shared" si="11"/>
         <v>-1.006962064487027e-005</v>
       </c>
       <c r="E38" s="1">
-        <f>ABS(B37-B38)</f>
+        <f t="shared" si="14"/>
         <v>4.3683444854281106e-005</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" ht="14.25"/>
     <row r="41" ht="14.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>2.5</v>
       </c>
-      <c r="B43" s="3">
-        <f>COS(A43)+A43-2</f>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43:B49" si="15">COS(A43)+A43-2</f>
         <v>-0.30114361554693359</v>
       </c>
-      <c r="C43" s="3">
-        <f>-SIN(A43)+1</f>
+      <c r="C43" s="2">
+        <f t="shared" ref="C43:C49" si="16">-SIN(A43)+1</f>
         <v>0.40152785589604356</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="3">
-        <f>A43-B43/C43</f>
+      <c r="A44" s="2">
+        <f t="shared" ref="A44:A49" si="17">A43-B43/C43</f>
         <v>3.2499943307168713</v>
       </c>
-      <c r="B44" s="3">
-        <f>COS(A44)+A44-2</f>
+      <c r="B44" s="2">
+        <f t="shared" si="15"/>
         <v>0.2558640412634503</v>
       </c>
-      <c r="C44" s="3">
-        <f>-SIN(A44)+1</f>
+      <c r="C44" s="2">
+        <f t="shared" si="16"/>
         <v>1.1081894985257692</v>
       </c>
-      <c r="D44" s="3">
-        <f>ABS(A43-A44)</f>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:D49" si="18">ABS(A43-A44)</f>
         <v>0.74999433071687127</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="3">
-        <f>A44-B44/C44</f>
+      <c r="A45" s="2">
+        <f t="shared" si="17"/>
         <v>3.0191095934008909</v>
       </c>
-      <c r="B45" s="3">
-        <f>COS(A45)+A45-2</f>
+      <c r="B45" s="2">
+        <f t="shared" si="15"/>
         <v>2.6601270480497874e-002</v>
       </c>
-      <c r="C45" s="3">
-        <f>-SIN(A45)+1</f>
+      <c r="C45" s="2">
+        <f t="shared" si="16"/>
         <v>0.87782296069330978</v>
       </c>
-      <c r="D45" s="3">
-        <f>ABS(A44-A45)</f>
+      <c r="D45" s="2">
+        <f t="shared" si="18"/>
         <v>0.23088473731598036</v>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="3">
-        <f>A45-B45/C45</f>
+      <c r="A46" s="2">
+        <f t="shared" si="17"/>
         <v>2.9888059084078624</v>
       </c>
-      <c r="B46" s="3">
-        <f>COS(A46)+A46-2</f>
+      <c r="B46" s="2">
+        <f t="shared" si="15"/>
         <v>4.551152987248841e-004</v>
       </c>
-      <c r="C46" s="3">
-        <f>-SIN(A46)+1</f>
+      <c r="C46" s="2">
+        <f t="shared" si="16"/>
         <v>0.84780699831944017</v>
       </c>
-      <c r="D46" s="3">
-        <f>ABS(A45-A46)</f>
+      <c r="D46" s="2">
+        <f t="shared" si="18"/>
         <v>3.030368499302849e-002</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="3">
-        <f>A46-B46/C46</f>
+      <c r="A47" s="2">
+        <f t="shared" si="17"/>
         <v>2.9882690936615499</v>
       </c>
-      <c r="B47" s="3">
-        <f>COS(A47)+A47-2</f>
+      <c r="B47" s="2">
+        <f t="shared" si="15"/>
         <v>1.4240263235265616e-007</v>
       </c>
-      <c r="C47" s="3">
-        <f>-SIN(A47)+1</f>
+      <c r="C47" s="2">
+        <f t="shared" si="16"/>
         <v>0.84727645899338511</v>
       </c>
-      <c r="D47" s="3">
-        <f>ABS(A46-A47)</f>
+      <c r="D47" s="2">
+        <f t="shared" si="18"/>
         <v>5.3681474631250836e-004</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="3">
-        <f>A47-B47/C47</f>
+      <c r="A48" s="2">
+        <f t="shared" si="17"/>
         <v>2.9882689255905137</v>
       </c>
-      <c r="B48" s="3">
-        <f>COS(A48)+A48-2</f>
+      <c r="B48" s="2">
+        <f t="shared" si="15"/>
         <v>1.3766765505351941e-014</v>
       </c>
-      <c r="C48" s="3">
-        <f>-SIN(A48)+1</f>
+      <c r="C48" s="2">
+        <f t="shared" si="16"/>
         <v>0.84727629289400064</v>
       </c>
-      <c r="D48" s="3">
-        <f>ABS(A47-A48)</f>
+      <c r="D48" s="2">
+        <f t="shared" si="18"/>
         <v>1.6807103619953523e-007</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="3">
-        <f>A48-B48/C48</f>
+      <c r="A49" s="2">
+        <f t="shared" si="17"/>
         <v>2.9882689255904973</v>
       </c>
-      <c r="B49" s="3">
-        <f>COS(A49)+A49-2</f>
+      <c r="B49" s="2">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C49" s="3">
-        <f>-SIN(A49)+1</f>
+      <c r="C49" s="2">
+        <f t="shared" si="16"/>
         <v>0.84727629289398432</v>
       </c>
-      <c r="D49" s="3">
-        <f>ABS(A48-A49)</f>
+      <c r="D49" s="2">
+        <f t="shared" si="18"/>
         <v>1.6431300764452317e-014</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" ht="14.25"/>
     <row r="52" ht="14.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="10"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>2.5</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>3</v>
       </c>
-      <c r="C54" s="3">
-        <f>ABS(A54-B54)</f>
+      <c r="C54" s="2">
+        <f t="shared" ref="C54:C58" si="19">ABS(A54-B54)</f>
         <v>0.5</v>
       </c>
-      <c r="D54" s="3">
-        <f>COS(A54)+A54-2</f>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:D58" si="20">COS(A54)+A54-2</f>
         <v>-0.30114361554693359</v>
       </c>
-      <c r="E54" s="3">
-        <f>COS(B54)+B54-2</f>
+      <c r="E54" s="2">
+        <f t="shared" ref="E54:E58" si="21">COS(B54)+B54-2</f>
         <v>1.0007503399554807e-002</v>
       </c>
-      <c r="F54" s="3">
-        <f>-SIN(A54)+1</f>
+      <c r="F54" s="2">
+        <f t="shared" ref="F54:F58" si="22">-SIN(A54)+1</f>
         <v>0.40152785589604356</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="3">
-        <f>A54-D54/F54</f>
+      <c r="A55" s="2">
+        <f t="shared" ref="A55:A58" si="23">A54-D54/F54</f>
         <v>3.2499943307168713</v>
       </c>
-      <c r="B55" s="3">
-        <f>B54-(A54-B54)/(D54-E54)*E54</f>
+      <c r="B55" s="2">
+        <f t="shared" ref="B55:B58" si="24">B54-(A54-B54)/(D54-E54)*E54</f>
         <v>2.9839185804096755</v>
       </c>
-      <c r="C55" s="3">
-        <f>ABS(A55-B55)</f>
+      <c r="C55" s="2">
+        <f t="shared" si="19"/>
         <v>0.26607575030719577</v>
       </c>
-      <c r="D55" s="3">
-        <f>COS(A55)+A55-2</f>
+      <c r="D55" s="2">
+        <f t="shared" si="20"/>
         <v>0.2558640412634503</v>
       </c>
-      <c r="E55" s="3">
-        <f>COS(B55)+B55-2</f>
+      <c r="E55" s="2">
+        <f t="shared" si="21"/>
         <v>-3.6765947046966119e-003</v>
       </c>
-      <c r="F55" s="3">
-        <f>-SIN(A55)+1</f>
+      <c r="F55" s="2">
+        <f t="shared" si="22"/>
         <v>1.1081894985257692</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="3">
-        <f>A55-D55/F55</f>
+      <c r="A56" s="2">
+        <f t="shared" si="23"/>
         <v>3.0191095934008909</v>
       </c>
-      <c r="B56" s="3">
-        <f>B55-(A55-B55)/(D55-E55)*E55</f>
+      <c r="B56" s="2">
+        <f t="shared" si="24"/>
         <v>2.9876877500850849</v>
       </c>
-      <c r="C56" s="3">
-        <f>ABS(A56-B56)</f>
+      <c r="C56" s="2">
+        <f t="shared" si="19"/>
         <v>3.1421843315805997e-002</v>
       </c>
-      <c r="D56" s="3">
-        <f>COS(A56)+A56-2</f>
+      <c r="D56" s="2">
+        <f t="shared" si="20"/>
         <v>2.6601270480497874e-002</v>
       </c>
-      <c r="E56" s="3">
-        <f>COS(B56)+B56-2</f>
+      <c r="E56" s="2">
+        <f t="shared" si="21"/>
         <v>-4.9224933143676708e-004</v>
       </c>
-      <c r="F56" s="3">
-        <f>-SIN(A56)+1</f>
+      <c r="F56" s="2">
+        <f t="shared" si="22"/>
         <v>0.87782296069330978</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="3">
-        <f>A56-D56/F56</f>
+      <c r="A57" s="2">
+        <f t="shared" si="23"/>
         <v>2.9888059084078624</v>
       </c>
-      <c r="B57" s="3">
-        <f>B56-(A56-B56)/(D56-E56)*E56</f>
+      <c r="B57" s="2">
+        <f t="shared" si="24"/>
         <v>2.9882586386766037</v>
       </c>
-      <c r="C57" s="3">
-        <f>ABS(A57-B57)</f>
+      <c r="C57" s="2">
+        <f t="shared" si="19"/>
         <v>5.4726973125873712e-004</v>
       </c>
-      <c r="D57" s="3">
-        <f>COS(A57)+A57-2</f>
+      <c r="D57" s="2">
+        <f t="shared" si="20"/>
         <v>4.551152987248841e-004</v>
       </c>
-      <c r="E57" s="3">
-        <f>COS(B57)+B57-2</f>
+      <c r="E57" s="2">
+        <f t="shared" si="21"/>
         <v>-8.7158059796088594e-006</v>
       </c>
-      <c r="F57" s="3">
-        <f>-SIN(A57)+1</f>
+      <c r="F57" s="2">
+        <f t="shared" si="22"/>
         <v>0.84780699831944017</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="3">
-        <f>A57-D57/F57</f>
+      <c r="A58" s="2">
+        <f t="shared" si="23"/>
         <v>2.9882690936615499</v>
       </c>
-      <c r="B58" s="3">
-        <f>B57-(A57-B57)/(D57-E57)*E57</f>
+      <c r="B58" s="2">
+        <f t="shared" si="24"/>
         <v>2.9882689223698442</v>
       </c>
-      <c r="C58" s="3">
-        <f>ABS(A58-B58)</f>
+      <c r="C58" s="2">
+        <f t="shared" si="19"/>
         <v>1.7129170570839847e-007</v>
       </c>
-      <c r="D58" s="3">
-        <f>COS(A58)+A58-2</f>
+      <c r="D58" s="2">
+        <f t="shared" si="20"/>
         <v>1.4240263235265616e-007</v>
       </c>
-      <c r="E58" s="3">
-        <f>COS(B58)+B58-2</f>
+      <c r="E58" s="2">
+        <f t="shared" si="21"/>
         <v>-2.7287829773570138e-009</v>
       </c>
-      <c r="F58" s="3">
-        <f>-SIN(A58)+1</f>
+      <c r="F58" s="2">
+        <f t="shared" si="22"/>
         <v>0.84727645899338511</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" ht="14.25"/>
     <row r="61" ht="14.25"/>
     <row r="62" ht="14.25"/>
-    <row r="63" ht="14.25"/>
-    <row r="64" ht="14.25"/>
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67">
+        <f>A66-B67/5</f>
+        <v>2.9979984993200892</v>
+      </c>
+      <c r="B67" s="7">
+        <f>COS(A66)+A66-2</f>
+        <v>1.0007503399554807e-002</v>
+      </c>
+      <c r="C67">
+        <f>ABS(A67-A66)</f>
+        <v>2.0015006799107837e-003</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68">
+        <f>A67-B68/5</f>
+        <v>2.9963404118641073</v>
+      </c>
+      <c r="B68" s="7">
+        <f>COS(A67)+A67-2</f>
+        <v>8.2904372799106341e-003</v>
+      </c>
+      <c r="C68">
+        <f>ABS(A68-A67)</f>
+        <v>1.6580874559819492e-003</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69">
+        <f>A68-B69/5</f>
+        <v>2.994966214966059</v>
+      </c>
+      <c r="B69" s="7">
+        <f>COS(A68)+A68-2</f>
+        <v>6.8709844902405948e-003</v>
+      </c>
+      <c r="C69">
+        <f>ABS(A69-A68)</f>
+        <v>1.3741968980482966e-003</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70">
+        <f>A69-B70/5</f>
+        <v>2.9938268898001481</v>
+      </c>
+      <c r="B70" s="7">
+        <f>COS(A69)+A69-2</f>
+        <v>5.6966258295538807e-003</v>
+      </c>
+      <c r="C70">
+        <f>ABS(A70-A69)</f>
+        <v>1.139325165910865e-003</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71">
+        <f>A70-B71/5</f>
+        <v>2.9928820098134548</v>
+      </c>
+      <c r="B71" s="7">
+        <f>COS(A70)+A70-2</f>
+        <v>4.7243999334676268e-003</v>
+      </c>
+      <c r="C71">
+        <f>ABS(A71-A70)</f>
+        <v>9.4487998669334772e-004</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72">
+        <f>A71-B72/5</f>
+        <v>2.9920981948473422</v>
+      </c>
+      <c r="B72" s="7">
+        <f>COS(A71)+A71-2</f>
+        <v>3.9190748305619749e-003</v>
+      </c>
+      <c r="C72">
+        <f>ABS(A72-A71)</f>
+        <v>7.8381496611257262e-004</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73">
+        <f>A72-B73/5</f>
+        <v>2.9914478556225057</v>
+      </c>
+      <c r="B73" s="7">
+        <f>COS(A72)+A72-2</f>
+        <v>3.2516961241815245e-003</v>
+      </c>
+      <c r="C73">
+        <f>ABS(A73-A72)</f>
+        <v>6.5033922483648254e-004</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74">
+        <f>A73-B74/5</f>
+        <v>2.9909081703445626</v>
+      </c>
+      <c r="B74" s="7">
+        <f>COS(A73)+A73-2</f>
+        <v>2.6984263897156247e-003</v>
+      </c>
+      <c r="C74">
+        <f>ABS(A74-A73)</f>
+        <v>5.3968527794312493e-004</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75">
+        <f>A74-B75/5</f>
+        <v>2.9904602479592457</v>
+      </c>
+      <c r="B75" s="7">
+        <f>COS(A74)+A74-2</f>
+        <v>2.2396119265852832e-003</v>
+      </c>
+      <c r="C75">
+        <f>ABS(A75-A74)</f>
+        <v>4.47922385316879e-004</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76">
+        <f>A75-B76/5</f>
+        <v>2.990088442251007</v>
+      </c>
+      <c r="B76" s="7">
+        <f>COS(A75)+A75-2</f>
+        <v>1.8590285411939078e-003</v>
+      </c>
+      <c r="C76">
+        <f>ABS(A76-A75)</f>
+        <v>3.7180570823869274e-004</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77">
+        <f>A76-B77/5</f>
+        <v>2.9897797883738861</v>
+      </c>
+      <c r="B77" s="7">
+        <f>COS(A76)+A76-2</f>
+        <v>1.54326938560434e-003</v>
+      </c>
+      <c r="C77">
+        <f>ABS(A77-A76)</f>
+        <v>3.08653877120868e-004</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78">
+        <f>A77-B78/5</f>
+        <v>2.9895235391199604</v>
+      </c>
+      <c r="B78" s="7">
+        <f>COS(A77)+A77-2</f>
+        <v>1.2812462696296656e-003</v>
+      </c>
+      <c r="C78">
+        <f>ABS(A78-A77)</f>
+        <v>2.5624925392575548e-004</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79">
+        <f>A78-B79/5</f>
+        <v>2.9893107826909007</v>
+      </c>
+      <c r="B79" s="7">
+        <f>COS(A78)+A78-2</f>
+        <v>1.0637821452985641e-003</v>
+      </c>
+      <c r="C79">
+        <f>ABS(A79-A78)</f>
+        <v>2.1275642905971281e-004</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80">
+        <f>A79-B80/5</f>
+        <v>2.9891341272475489</v>
+      </c>
+      <c r="B80" s="7">
+        <f>COS(A79)+A79-2</f>
+        <v>8.8327721675884874e-004</v>
+      </c>
+      <c r="C80">
+        <f>ABS(A80-A79)</f>
+        <v>1.7665544335176975e-004</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81">
+        <f>A80-B81/5</f>
+        <v>2.9889874402945047</v>
+      </c>
+      <c r="B81" s="7">
+        <f>COS(A80)+A80-2</f>
+        <v>7.3343476522058637e-004</v>
+      </c>
+      <c r="C81">
+        <f>ABS(A81-A80)</f>
+        <v>1.4668695304420609e-004</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82">
+        <f>A81-B82/5</f>
+        <v>2.9888656331769528</v>
+      </c>
+      <c r="B82" s="7">
+        <f>COS(A81)+A81-2</f>
+        <v>6.0903558776015387e-004</v>
+      </c>
+      <c r="C82">
+        <f>ABS(A82-A81)</f>
+        <v>1.2180711755194196e-004</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83">
+        <f>A82-B83/5</f>
+        <v>2.9887644827492155</v>
+      </c>
+      <c r="B83" s="7">
+        <f>COS(A82)+A82-2</f>
+        <v>5.0575213868553348e-004</v>
+      </c>
+      <c r="C83">
+        <f>ABS(A83-A82)</f>
+        <v>1.0115042773728433e-004</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25"/>
+    <row r="85" ht="14.25"/>
+    <row r="86" ht="14.25"/>
+    <row r="87" ht="14.25"/>
+    <row r="88" ht="14.25"/>
+    <row r="89" ht="14.25"/>
+    <row r="90" ht="14.25"/>
+    <row r="91" ht="14.25"/>
+    <row r="92" ht="14.25"/>
+    <row r="93" ht="14.25"/>
+    <row r="94" ht="14.25"/>
+    <row r="95" ht="14.25"/>
+    <row r="96" ht="14.25"/>
+    <row r="97" ht="14.25"/>
+    <row r="98" ht="14.25"/>
+    <row r="99" ht="14.25"/>
+    <row r="100" ht="14.25"/>
+    <row r="101" ht="14.25"/>
+    <row r="102" ht="14.25"/>
+    <row r="103" ht="14.25"/>
+    <row r="104" ht="14.25"/>
+    <row r="105" ht="14.25"/>
+    <row r="106" ht="14.25"/>
+    <row r="107" ht="14.25"/>
+    <row r="108" ht="14.25"/>
+    <row r="109" ht="14.25"/>
+    <row r="110" ht="14.25"/>
+    <row r="111" ht="14.25"/>
+    <row r="112" ht="14.25"/>
+    <row r="113" ht="14.25"/>
+    <row r="114" ht="14.25"/>
+    <row r="115" ht="14.25"/>
+    <row r="116" ht="14.25"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
@@ -2744,6 +5128,8 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="M67:P73"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
